--- a/Datos/Database by set/Set with text box/Xlsx sets/Innistrad Promos (PISD).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Innistrad Promos (PISD).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,266 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Devil's Play</t>
+          <t>("Devil's Play", ['{X}{R}', 'Sorcery', 'Devil’s Play deals X damage to any target.', 'Flashback {X}{R}{R}{R} (You may cast this card from your graveyard for its flashback cost. Then exile it.)'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{X}{R}</t>
+          <t>('Diregraf Ghoul', ['{B}', 'Creature — Zombie', 'Diregraf Ghoul enters the battlefield tapped.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Elite Inquisitor', ['{W}{W}', 'Creature — Human Soldier', 'First strike, vigilance', 'Protection from Vampires, from Werewolves, and from Zombies', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Devil’s Play deals X damage to any target.</t>
+          <t>("Ludevic's Test Subject", ['{1}{U}', 'Creature — Lizard Egg', 'Defender', '{1}{U}: Put a hatchling counter on Ludevic’s Test Subject. Then if there are five or more hatchling counters on it, remove all of them and transform it.', '0/3', "Ludevic's Abomination", 'Creature — Lizard Horror', 'Trample', '13/13'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Flashback {X}{R}{R}{R} (You may cast this card from your graveyard for its flashback cost. Then exile it.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Diregraf Ghoul</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Diregraf Ghoul enters the battlefield tapped.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Elite Inquisitor</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Creature — Human Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>First strike, vigilance</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Protection from Vampires, from Werewolves, and from Zombies</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Ludevic's Test Subject</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>{1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Creature — Lizard Egg</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Defender</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{1}{U}: Put a hatchling counter on Ludevic’s Test Subject. Then if there are five or more hatchling counters on it, remove all of them and transform it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>0/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Ludevic's Abomination</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Creature — Lizard Horror</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Trample</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>13/13</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Mayor of Avabruck</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Creature — Human Advisor Werewolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Other Human creatures you control get +1/+1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>At the beginning of each upkeep, if no spells were cast last turn, transform Mayor of Avabruck.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Howlpack Alpha</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Creature — Werewolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Each other creature you control that’s a Werewolf or a Wolf gets +1/+1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>At the beginning of your end step, create a 2/2 green Wolf creature token.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>At the beginning of each upkeep, if a player cast two or more spells last turn, transform Howlpack Alpha.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>3/3</t>
+          <t>('Mayor of Avabruck', ['{1}{G}', 'Creature — Human Advisor Werewolf', 'Other Human creatures you control get +1/+1.', 'At the beginning of each upkeep, if no spells were cast last turn, transform Mayor of Avabruck.', '1/1', 'Howlpack Alpha', 'Creature — Werewolf', 'Each other creature you control that’s a Werewolf or a Wolf gets +1/+1.', 'At the beginning of your end step, create a 2/2 green Wolf creature token.', 'At the beginning of each upkeep, if a player cast two or more spells last turn, transform Howlpack Alpha.', '3/3'])</t>
         </is>
       </c>
     </row>
